--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebeha\Documents\GitHub\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27684153-A2BD-42B1-AF51-5E4AF933978A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342359E6-BC7F-4C82-991D-FF1C7A0303F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{04596899-77FC-477F-AC55-14687390969B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="22">
   <si>
     <t>Event Log</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Example Leakage Differnce %</t>
   </si>
   <si>
-    <t>mobis2018</t>
-  </si>
-  <si>
     <t>Zeilenbeschriftungen</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>bpic2017</t>
+  </si>
+  <si>
+    <t>no improvement of leakage anymore</t>
   </si>
 </sst>
 </file>
@@ -140,24 +140,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -178,10 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -189,10 +176,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1535,7 +1522,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Eva Beha" refreshedDate="45491.162929629631" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="67" xr:uid="{24E4E8AE-7E7E-4B50-B269-006BF7690D3F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G68" sheet="Results"/>
+    <worksheetSource ref="A1:G83" sheet="Results"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Sampling technique" numFmtId="0">
@@ -2203,7 +2190,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45EC0CCB-9895-44D7-9DE1-D600C1DE8024}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{45EC0CCB-9895-44D7-9DE1-D600C1DE8024}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -2623,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F45B77-02EF-4A30-9C0D-EEC76D2162F2}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="72" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2667,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2690,7 +2677,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2713,7 +2700,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2781,50 +2768,53 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F7">
+        <f>D7-D2</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="G7">
+        <f>E7-E2</f>
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
         <v>0.1</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="e">
-        <f>D7-D2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
-        <f>E7-E2</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
       <c r="D8">
-        <v>0.86899999999999999</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="E8">
-        <v>0.73299999999999998</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F8">
         <f>D8-D2</f>
-        <v>1.6000000000000014E-2</v>
+        <v>-4.6999999999999931E-2</v>
       </c>
       <c r="G8">
-        <f>(E8-E2)</f>
-        <v>-6.2000000000000055E-2</v>
+        <f>E8-E2</f>
+        <v>-0.13800000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2832,99 +2822,99 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>0.86299999999999999</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E9">
-        <v>0.74399999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="F9">
         <f>D9-D2</f>
-        <v>1.0000000000000009E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="G9">
-        <f>E9-E2</f>
-        <v>-5.1000000000000045E-2</v>
+        <f>(E9-E2)</f>
+        <v>-6.2000000000000055E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="e">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F10">
         <f>D10-D2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" t="e">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G10">
         <f>E10-E2</f>
-        <v>#VALUE!</v>
+        <v>-5.1000000000000045E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="e">
-        <f>D11-D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" t="e">
-        <f>E11-E3</f>
-        <v>#VALUE!</v>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
+      </c>
+      <c r="D11">
+        <v>0.86</v>
+      </c>
+      <c r="E11">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F11">
+        <f>D11-D2</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="G11">
+        <f>E11-E2</f>
+        <v>-1.2000000000000011E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>0.3</v>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.05</v>
       </c>
       <c r="D12">
-        <v>0.72299999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="E12">
-        <v>0.78700000000000003</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="F12">
         <f>D12-D3</f>
-        <v>2.0000000000000018E-3</v>
+        <v>-8.0999999999999961E-2</v>
       </c>
       <c r="G12">
         <f>E12-E3</f>
-        <v>-3.3999999999999919E-2</v>
+        <v>-0.11899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2932,24 +2922,24 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0.71899999999999997</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="E13">
-        <v>0.78600000000000003</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="F13">
         <f>D13-D3</f>
-        <v>-2.0000000000000018E-3</v>
+        <v>-1.9000000000000017E-2</v>
       </c>
       <c r="G13">
         <f>E13-E3</f>
-        <v>-3.499999999999992E-2</v>
+        <v>-2.8999999999999915E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2957,24 +2947,24 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D14">
-        <v>0.73299999999999998</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E14">
-        <v>0.80300000000000005</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="F14">
         <f>D14-D3</f>
-        <v>1.2000000000000011E-2</v>
+        <v>2.0000000000000018E-3</v>
       </c>
       <c r="G14">
         <f>E14-E3</f>
-        <v>-1.7999999999999905E-2</v>
+        <v>-3.3999999999999919E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2982,125 +2972,124 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>0.86699999999999999</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="E15">
-        <v>0.64400000000000002</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="F15">
-        <f>D15-D4</f>
-        <v>-1.3000000000000012E-2</v>
+        <f>D15-D3</f>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="G15">
-        <f>E15-E4</f>
-        <v>-0.12</v>
-      </c>
-      <c r="H15" s="8"/>
+        <f>E15-E3</f>
+        <v>-3.499999999999992E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D16">
-        <v>0.878</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="E16">
-        <v>0.66200000000000003</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="F16">
-        <f>D16-D4</f>
-        <v>-2.0000000000000018E-3</v>
+        <f>D16-D3</f>
+        <v>1.2000000000000011E-2</v>
       </c>
       <c r="G16">
-        <f>E16-E4</f>
-        <v>-0.10199999999999998</v>
+        <f>E16-E3</f>
+        <v>-1.7999999999999905E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>0.5</v>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.01</v>
       </c>
       <c r="D17">
-        <v>0.879</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="E17">
-        <v>0.70199999999999996</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="F17">
         <f>D17-D4</f>
-        <v>-1.0000000000000009E-3</v>
+        <v>-0.20199999999999996</v>
       </c>
       <c r="G17">
         <f>E17-E4</f>
-        <v>-6.2000000000000055E-2</v>
+        <v>-0.28600000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>0.7</v>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.03</v>
       </c>
       <c r="D18">
-        <v>0.88</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="E18">
-        <v>0.73199999999999998</v>
+        <v>0.624</v>
       </c>
       <c r="F18">
         <f>D18-D4</f>
-        <v>0</v>
+        <v>-1.5000000000000013E-2</v>
       </c>
       <c r="G18">
         <f>E18-E4</f>
-        <v>-3.2000000000000028E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>0.3</v>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.05</v>
       </c>
       <c r="D19">
-        <v>0.73599999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="E19">
-        <v>0.97899999999999998</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F19">
-        <f>D19-D5</f>
-        <v>-8.0999999999999961E-2</v>
+        <f>D19-D4</f>
+        <v>-1.6000000000000014E-2</v>
       </c>
       <c r="G19">
-        <f>E19-E5</f>
-        <v>-1.0000000000000009E-3</v>
+        <f>E19-E4</f>
+        <v>-0.20599999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3108,49 +3097,50 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D20">
-        <v>0.76900000000000002</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="E20">
-        <v>0.98799999999999999</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="F20">
-        <f>D20-D5</f>
-        <v>-4.7999999999999932E-2</v>
+        <f>D20-D4</f>
+        <v>-1.3000000000000012E-2</v>
       </c>
       <c r="G20">
-        <f>E20-E5</f>
-        <v>8.0000000000000071E-3</v>
-      </c>
+        <f>E20-E4</f>
+        <v>-0.12</v>
+      </c>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D21">
-        <v>0.79400000000000004</v>
+        <v>0.878</v>
       </c>
       <c r="E21">
-        <v>0.98599999999999999</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="F21">
-        <f>D21-D5</f>
-        <v>-2.2999999999999909E-2</v>
+        <f>D21-D4</f>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="G21">
-        <f>E21-E5</f>
-        <v>6.0000000000000053E-3</v>
+        <f>E21-E4</f>
+        <v>-0.10199999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3158,24 +3148,24 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
-        <v>0.84599999999999997</v>
+        <v>0.879</v>
       </c>
       <c r="E22">
-        <v>0.95199999999999996</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="F22">
-        <f>D22-D6</f>
-        <v>-1.7000000000000015E-2</v>
+        <f>D22-D4</f>
+        <v>-1.0000000000000009E-3</v>
       </c>
       <c r="G22">
-        <f>E22-E6</f>
-        <v>-2.200000000000002E-2</v>
+        <f>E22-E4</f>
+        <v>-6.2000000000000055E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3183,24 +3173,24 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D23">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E23">
-        <v>0.95699999999999996</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="F23">
-        <f>D23-D6</f>
-        <v>-3.0000000000000027E-3</v>
+        <f>D23-D4</f>
+        <v>0</v>
       </c>
       <c r="G23">
-        <f>E23-E6</f>
-        <v>-1.7000000000000015E-2</v>
+        <f>E23-E4</f>
+        <v>-3.2000000000000028E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3208,336 +3198,333 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D24">
-        <v>0.86799999999999999</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="E24">
-        <v>0.97</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="F24">
-        <f>D24-D6</f>
-        <v>5.0000000000000044E-3</v>
+        <f>D24-D5</f>
+        <v>-8.0999999999999961E-2</v>
       </c>
       <c r="G24">
-        <f>E24-E6</f>
-        <v>-4.0000000000000036E-3</v>
+        <f>E24-E5</f>
+        <v>-1.0000000000000009E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
+      <c r="A25" t="s">
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D25">
-        <v>0.80600000000000005</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="E25">
-        <v>0.65700000000000003</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="F25">
-        <f>D25-D2</f>
-        <v>-4.6999999999999931E-2</v>
+        <f>D25-D5</f>
+        <v>-4.7999999999999932E-2</v>
       </c>
       <c r="G25">
-        <f>E25-E2</f>
-        <v>-0.13800000000000001</v>
-      </c>
-      <c r="H25" s="7"/>
+        <f>E25-E5</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D26">
-        <v>0.86299999999999999</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="E26">
-        <v>0.66600000000000004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F26">
-        <f>D26-D2</f>
-        <v>1.0000000000000009E-2</v>
+        <f>D26-D5</f>
+        <v>-2.2999999999999909E-2</v>
       </c>
       <c r="G26">
-        <f>E26-E2</f>
-        <v>-0.129</v>
+        <f>E26-E5</f>
+        <v>6.0000000000000053E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.03</v>
       </c>
       <c r="D27">
-        <v>0.871</v>
+        <v>0.77</v>
       </c>
       <c r="E27">
-        <v>0.70199999999999996</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="F27">
-        <f>D27-D2</f>
-        <v>1.8000000000000016E-2</v>
+        <f>D27-D6</f>
+        <v>-9.2999999999999972E-2</v>
       </c>
       <c r="G27">
-        <f>E27-E2</f>
-        <v>-9.3000000000000083E-2</v>
+        <f>E27-E6</f>
+        <v>-0.11599999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>0.7</v>
+        <v>2</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.05</v>
       </c>
       <c r="D28">
-        <v>0.872</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="E28">
-        <v>0.69099999999999995</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="F28">
-        <f>D28-D2</f>
+        <f>D28-D6</f>
         <v>1.9000000000000017E-2</v>
       </c>
       <c r="G28">
-        <f>E28-E2</f>
-        <v>-0.10400000000000009</v>
+        <f>E28-E6</f>
+        <v>-8.9999999999999969E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>0.05</v>
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.1</v>
       </c>
       <c r="D29">
-        <v>0.58299999999999996</v>
+        <v>0.86</v>
       </c>
       <c r="E29">
-        <v>0.48099999999999998</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="F29">
-        <f>D29-D3</f>
-        <v>-0.13800000000000001</v>
+        <f>D29-D6</f>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="G29">
-        <f>E29-E3</f>
-        <v>-0.33999999999999997</v>
-      </c>
-      <c r="H29" s="8"/>
+        <f>E29-E6</f>
+        <v>-4.4999999999999929E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
-        <v>0.69399999999999995</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="E30">
-        <v>0.45800000000000002</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="F30">
-        <f>D30-D3</f>
-        <v>-2.7000000000000024E-2</v>
+        <f>D30-D6</f>
+        <v>-1.7000000000000015E-2</v>
       </c>
       <c r="G30">
-        <f>E30-E3</f>
-        <v>-0.36299999999999993</v>
-      </c>
-      <c r="H30" s="8"/>
+        <f>E30-E6</f>
+        <v>-2.200000000000002E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D31">
-        <v>0.70399999999999996</v>
+        <v>0.86</v>
       </c>
       <c r="E31">
-        <v>0.46500000000000002</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="F31">
-        <f>D31-D3</f>
+        <f>D31-D6</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="G31">
+        <f>E31-E6</f>
         <v>-1.7000000000000015E-2</v>
-      </c>
-      <c r="G31">
-        <f>E31-E3</f>
-        <v>-0.35599999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D32">
-        <v>0.71899999999999997</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="E32">
-        <v>0.502</v>
+        <v>0.97</v>
       </c>
       <c r="F32">
-        <f>D32-D3</f>
-        <v>-2.0000000000000018E-3</v>
+        <f>D32-D6</f>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="G32">
-        <f>E32-E3</f>
-        <v>-0.31899999999999995</v>
+        <f>E32-E6</f>
+        <v>-4.0000000000000036E-3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>0.7</v>
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.05</v>
       </c>
       <c r="D33">
-        <v>0.72699999999999998</v>
+        <v>0.751</v>
       </c>
       <c r="E33">
-        <v>0.55900000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="F33">
-        <f>D33-D3</f>
-        <v>6.0000000000000053E-3</v>
+        <f>D33-D2</f>
+        <v>-0.10199999999999998</v>
       </c>
       <c r="G33">
-        <f>E33-E3</f>
-        <v>-0.2619999999999999</v>
+        <f>E33-E2</f>
+        <v>-0.19500000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>16</v>
+      <c r="A34" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>0.1</v>
       </c>
       <c r="D34">
-        <v>0.84699999999999998</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="E34">
-        <v>0.58499999999999996</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F34">
-        <f>D34-D4</f>
-        <v>-3.3000000000000029E-2</v>
+        <f>D34-D2</f>
+        <v>-4.6999999999999931E-2</v>
       </c>
       <c r="G34">
-        <f>E34-E4</f>
-        <v>-0.17900000000000005</v>
-      </c>
-      <c r="H34" s="8"/>
+        <f>E34-E2</f>
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>0.3</v>
       </c>
       <c r="D35">
-        <v>0.872</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E35">
-        <v>0.63300000000000001</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F35">
-        <f>D35-D4</f>
-        <v>-8.0000000000000071E-3</v>
+        <f>D35-D2</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="G35">
-        <f>E35-E4</f>
-        <v>-0.13100000000000001</v>
+        <f>E35-E2</f>
+        <v>-0.129</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>0.5</v>
       </c>
       <c r="D36">
-        <v>0.86499999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="E36">
-        <v>0.64700000000000002</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="F36">
-        <f>D36-D4</f>
-        <v>-1.5000000000000013E-2</v>
+        <f>D36-D2</f>
+        <v>1.8000000000000016E-2</v>
       </c>
       <c r="G36">
-        <f>E36-E4</f>
-        <v>-0.11699999999999999</v>
+        <f>E36-E2</f>
+        <v>-9.3000000000000083E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>0.7</v>
@@ -3546,545 +3533,548 @@
         <v>0.872</v>
       </c>
       <c r="E37">
-        <v>0.65100000000000002</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F37">
-        <f>D37-D4</f>
-        <v>-8.0000000000000071E-3</v>
+        <f>D37-D2</f>
+        <v>1.9000000000000017E-2</v>
       </c>
       <c r="G37">
-        <f>E37-E4</f>
-        <v>-0.11299999999999999</v>
+        <f>E37-E2</f>
+        <v>-0.10400000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>0.1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="e">
-        <f>D38-D5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" t="e">
-        <f>E38-E5</f>
-        <v>#VALUE!</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="D38">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E38">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="F38">
+        <f>D38-D3</f>
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="G38">
+        <f>E38-E3</f>
+        <v>-0.36899999999999994</v>
+      </c>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D39">
-        <v>0.40699999999999997</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="E39">
-        <v>0.74099999999999999</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="F39">
-        <f>D39-D5</f>
-        <v>-0.41</v>
+        <f>D39-D3</f>
+        <v>-2.7000000000000024E-2</v>
       </c>
       <c r="G39">
-        <f>E39-E5</f>
-        <v>-0.23899999999999999</v>
-      </c>
+        <f>E39-E3</f>
+        <v>-0.36299999999999993</v>
+      </c>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D40">
-        <v>0.41699999999999998</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E40">
-        <v>0.68</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="F40">
-        <f>D40-D5</f>
-        <v>-0.39999999999999997</v>
+        <f>D40-D3</f>
+        <v>-1.7000000000000015E-2</v>
       </c>
       <c r="G40">
-        <f>E40-E5</f>
-        <v>-0.29999999999999993</v>
+        <f>E40-E3</f>
+        <v>-0.35599999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C41">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D41">
-        <v>0.372</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="E41">
-        <v>0.71299999999999997</v>
+        <v>0.502</v>
       </c>
       <c r="F41">
-        <f>D41-D5</f>
-        <v>-0.44499999999999995</v>
+        <f>D41-D3</f>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="G41">
-        <f>E41-E5</f>
-        <v>-0.26700000000000002</v>
-      </c>
-      <c r="H41" s="8"/>
+        <f>E41-E3</f>
+        <v>-0.31899999999999995</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C42">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D42">
-        <v>0.30499999999999999</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="E42">
-        <v>0.45400000000000001</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="F42">
-        <f>D42-D6</f>
-        <v>-0.55800000000000005</v>
+        <f>D42-D3</f>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="G42">
-        <f>E42-E6</f>
-        <v>-0.52</v>
-      </c>
-      <c r="H42" s="8"/>
+        <f>E42-E3</f>
+        <v>-0.2619999999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>0.3</v>
+        <v>15</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.03</v>
       </c>
       <c r="D43">
-        <v>0.78200000000000003</v>
+        <v>0.74</v>
       </c>
       <c r="E43">
-        <v>0.69599999999999995</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="F43">
-        <f>D43-D6</f>
-        <v>-8.0999999999999961E-2</v>
+        <f>D43-D4</f>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G43">
-        <f>E43-E6</f>
-        <v>-0.27800000000000002</v>
-      </c>
-      <c r="H43" s="8"/>
+        <f>E43-E4</f>
+        <v>-0.22799999999999998</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.05</v>
       </c>
       <c r="D44">
-        <v>0.79500000000000004</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="E44">
-        <v>0.72199999999999998</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="F44">
-        <f>D44-D6</f>
-        <v>-6.7999999999999949E-2</v>
+        <f>D44-D4</f>
+        <v>-4.7000000000000042E-2</v>
       </c>
       <c r="G44">
-        <f>E44-E6</f>
-        <v>-0.252</v>
-      </c>
+        <f>E44-E4</f>
+        <v>-0.22199999999999998</v>
+      </c>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="D45">
-        <v>0.82099999999999995</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="E45">
-        <v>0.75900000000000001</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="F45">
-        <f>D45-D6</f>
-        <v>-4.2000000000000037E-2</v>
+        <f>D45-D4</f>
+        <v>-3.3000000000000029E-2</v>
       </c>
       <c r="G45">
-        <f>E45-E6</f>
-        <v>-0.21499999999999997</v>
-      </c>
+        <f>E45-E4</f>
+        <v>-0.17900000000000005</v>
+      </c>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
+      <c r="A46" t="s">
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D46">
-        <v>0.82899999999999996</v>
+        <v>0.872</v>
       </c>
       <c r="E46">
-        <v>0.70099999999999996</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F46">
-        <f>D46-D2</f>
-        <v>-2.4000000000000021E-2</v>
+        <f>D46-D4</f>
+        <v>-8.0000000000000071E-3</v>
       </c>
       <c r="G46">
-        <f>E46-E2</f>
-        <v>-9.4000000000000083E-2</v>
-      </c>
-      <c r="H46" s="8"/>
+        <f>E46-E4</f>
+        <v>-0.13100000000000001</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D47">
-        <v>0.85099999999999998</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="E47">
-        <v>0.752</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="F47">
-        <f>D47-D2</f>
-        <v>-2.0000000000000018E-3</v>
+        <f>D47-D4</f>
+        <v>-1.5000000000000013E-2</v>
       </c>
       <c r="G47">
-        <f>E47-E2</f>
-        <v>-4.3000000000000038E-2</v>
+        <f>E47-E4</f>
+        <v>-0.11699999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C48">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D48">
-        <v>0.85099999999999998</v>
+        <v>0.872</v>
       </c>
       <c r="E48">
-        <v>0.76400000000000001</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="F48">
-        <f>D48-D2</f>
-        <v>-2.0000000000000018E-3</v>
+        <f>D48-D4</f>
+        <v>-8.0000000000000071E-3</v>
       </c>
       <c r="G48">
-        <f>E48-E2</f>
-        <v>-3.1000000000000028E-2</v>
+        <f>E48-E4</f>
+        <v>-0.11299999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D49">
-        <v>0.85499999999999998</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="E49">
-        <v>0.78200000000000003</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="F49">
-        <f>D49-D2</f>
-        <v>2.0000000000000018E-3</v>
+        <f>D49-D5</f>
+        <v>-0.41</v>
       </c>
       <c r="G49">
-        <f>E49-E2</f>
-        <v>-1.3000000000000012E-2</v>
+        <f>E49-E5</f>
+        <v>-0.23899999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D50">
-        <v>0.67600000000000005</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E50">
-        <v>0.82899999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="F50">
-        <f>D50-D3</f>
-        <v>-4.4999999999999929E-2</v>
+        <f>D50-D5</f>
+        <v>-0.39999999999999997</v>
       </c>
       <c r="G50">
-        <f>E50-E3</f>
-        <v>8.0000000000000071E-3</v>
+        <f>E50-E5</f>
+        <v>-0.29999999999999993</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D51">
-        <v>0.71799999999999997</v>
+        <v>0.372</v>
       </c>
       <c r="E51">
-        <v>0.80300000000000005</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F51">
-        <f>D51-D3</f>
-        <v>-3.0000000000000027E-3</v>
+        <f>D51-D5</f>
+        <v>-0.44499999999999995</v>
       </c>
       <c r="G51">
-        <f>E51-E3</f>
-        <v>-1.7999999999999905E-2</v>
-      </c>
+        <f>E51-E5</f>
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D52">
-        <v>0.72699999999999998</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="E52">
-        <v>0.80500000000000005</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="F52">
-        <f>D52-D3</f>
-        <v>6.0000000000000053E-3</v>
+        <f>D52-D6</f>
+        <v>-0.55800000000000005</v>
       </c>
       <c r="G52">
-        <f>E52-E3</f>
-        <v>-1.5999999999999903E-2</v>
-      </c>
+        <f>E52-E6</f>
+        <v>-0.52</v>
+      </c>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D53">
-        <v>0.72399999999999998</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="E53">
-        <v>0.83099999999999996</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="F53">
-        <f>D53-D3</f>
-        <v>3.0000000000000027E-3</v>
+        <f>D53-D6</f>
+        <v>-8.0999999999999961E-2</v>
       </c>
       <c r="G53">
-        <f>E53-E3</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
+        <f>E53-E6</f>
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D54">
-        <v>0.60099999999999998</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="E54">
-        <v>0.50900000000000001</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="F54">
-        <f>D54-D4</f>
-        <v>-0.27900000000000003</v>
+        <f>D54-D6</f>
+        <v>-6.7999999999999949E-2</v>
       </c>
       <c r="G54">
-        <f>E54-E4</f>
-        <v>-0.255</v>
+        <f>E54-E6</f>
+        <v>-0.252</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>0.7</v>
+      </c>
+      <c r="D55">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E55">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="F55">
+        <f>D55-D6</f>
+        <v>-4.2000000000000037E-2</v>
+      </c>
+      <c r="G55">
+        <f>E55-E6</f>
+        <v>-0.21499999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55">
-        <v>0.03</v>
-      </c>
-      <c r="D55">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="E55">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="F55">
-        <f>D55-D4</f>
-        <v>-3.3000000000000029E-2</v>
-      </c>
-      <c r="G55">
-        <f>E55-E4</f>
-        <v>-0.11699999999999999</v>
-      </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D56">
+        <v>0.77</v>
+      </c>
+      <c r="E56">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="F56">
+        <f>D56-D2</f>
+        <v>-8.2999999999999963E-2</v>
+      </c>
+      <c r="G56">
+        <f>E56-E2</f>
+        <v>-0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56">
-        <v>0.05</v>
-      </c>
-      <c r="D56">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="E56">
-        <v>0.65</v>
-      </c>
-      <c r="F56">
-        <f>D56-D4</f>
-        <v>-1.100000000000001E-2</v>
-      </c>
-      <c r="G56">
-        <f>E56-E4</f>
-        <v>-0.11399999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C57">
         <v>0.1</v>
       </c>
       <c r="D57">
-        <v>0.86599999999999999</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E57">
-        <v>0.67</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="F57">
-        <f>D57-D4</f>
-        <v>-1.4000000000000012E-2</v>
+        <f>D57-D2</f>
+        <v>-2.4000000000000021E-2</v>
       </c>
       <c r="G57">
-        <f>E57-E4</f>
-        <v>-9.3999999999999972E-2</v>
-      </c>
+        <f>E57-E2</f>
+        <v>-9.4000000000000083E-2</v>
+      </c>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C58">
         <v>0.3</v>
       </c>
       <c r="D58">
-        <v>0.876</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="E58">
-        <v>0.71599999999999997</v>
+        <v>0.752</v>
       </c>
       <c r="F58">
-        <f>D58-D4</f>
-        <v>-4.0000000000000036E-3</v>
+        <f>D58-D2</f>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="G58">
-        <f>E58-E4</f>
-        <v>-4.8000000000000043E-2</v>
+        <f>E58-E2</f>
+        <v>-4.3000000000000038E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4092,99 +4082,99 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>0.5</v>
       </c>
       <c r="D59">
-        <v>0.877</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="E59">
-        <v>0.72799999999999998</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="F59">
-        <f>D59-D4</f>
-        <v>-3.0000000000000027E-3</v>
+        <f>D59-D2</f>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="G59">
-        <f>E59-E4</f>
-        <v>-3.6000000000000032E-2</v>
+        <f>E59-E2</f>
+        <v>-3.1000000000000028E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="B60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="8">
         <v>0.7</v>
       </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="e">
-        <f>D60-D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" t="e">
-        <f>E60-E4</f>
-        <v>#VALUE!</v>
+      <c r="D60">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E60">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F60">
+        <f>D60-D2</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G60">
+        <f>E60-E2</f>
+        <v>-1.3000000000000012E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>0.1</v>
+      <c r="B61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.03</v>
       </c>
       <c r="D61">
-        <v>0.79700000000000004</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="E61">
-        <v>0.95599999999999996</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="F61">
-        <f>D61-D5</f>
-        <v>-1.9999999999999907E-2</v>
+        <f>D61-D3</f>
+        <v>-8.8999999999999968E-2</v>
       </c>
       <c r="G61">
-        <f>E61-E5</f>
-        <v>-2.4000000000000021E-2</v>
+        <f>E61-E3</f>
+        <v>-5.9999999999999942E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62">
-        <v>0.3</v>
+      <c r="B62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.05</v>
       </c>
       <c r="D62">
-        <v>0.78600000000000003</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E62">
-        <v>0.98599999999999999</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="F62">
-        <f>D62-D5</f>
-        <v>-3.0999999999999917E-2</v>
+        <f>D62-D3</f>
+        <v>-6.4999999999999947E-2</v>
       </c>
       <c r="G62">
-        <f>E62-E5</f>
-        <v>6.0000000000000053E-3</v>
+        <f>E62-E3</f>
+        <v>-0.11499999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4192,24 +4182,24 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C63">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D63">
-        <v>0.81699999999999995</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="E63">
-        <v>0.98699999999999999</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="F63">
-        <f>D63-D5</f>
-        <v>0</v>
+        <f>D63-D3</f>
+        <v>-3.8999999999999924E-2</v>
       </c>
       <c r="G63">
-        <f>E63-E5</f>
-        <v>7.0000000000000062E-3</v>
+        <f>E63-E3</f>
+        <v>-7.6999999999999957E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -4217,24 +4207,24 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D64">
-        <v>0.80400000000000005</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="E64">
-        <v>0.98299999999999998</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="F64">
-        <f>D64-D5</f>
-        <v>-1.2999999999999901E-2</v>
+        <f>D64-D3</f>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="G64">
-        <f>E64-E5</f>
-        <v>3.0000000000000027E-3</v>
+        <f>E64-E3</f>
+        <v>-1.7999999999999905E-2</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4242,50 +4232,49 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C65">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D65">
-        <v>0.86299999999999999</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="E65">
-        <v>0.91300000000000003</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="F65">
-        <f>D65-D6</f>
-        <v>0</v>
+        <f>D65-D3</f>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="G65">
-        <f>E65-E6</f>
-        <v>-6.0999999999999943E-2</v>
-      </c>
-      <c r="H65" s="8"/>
+        <f>E65-E3</f>
+        <v>-1.5999999999999903E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C66">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D66">
-        <v>0.86499999999999999</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="E66">
-        <v>0.96299999999999997</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="F66">
-        <f>D66-D6</f>
-        <v>2.0000000000000018E-3</v>
+        <f>D66-D3</f>
+        <v>3.0000000000000027E-3</v>
       </c>
       <c r="G66">
-        <f>E66-E6</f>
-        <v>-1.100000000000001E-2</v>
+        <f>E66-E3</f>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4293,24 +4282,24 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D67">
-        <v>0.86</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="E67">
-        <v>0.95599999999999996</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="F67">
-        <f>D67-D6</f>
-        <v>-3.0000000000000027E-3</v>
+        <f>D67-D4</f>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="G67">
-        <f>E67-E6</f>
-        <v>-1.8000000000000016E-2</v>
+        <f>E67-E4</f>
+        <v>-0.255</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4318,30 +4307,407 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>0.03</v>
+      </c>
+      <c r="D68">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E68">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F68">
+        <f>D68-D4</f>
+        <v>-3.3000000000000029E-2</v>
+      </c>
+      <c r="G68">
+        <f>E68-E4</f>
+        <v>-0.11699999999999999</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>0.05</v>
+      </c>
+      <c r="D69">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E69">
+        <v>0.65</v>
+      </c>
+      <c r="F69">
+        <f>D69-D4</f>
+        <v>-1.100000000000001E-2</v>
+      </c>
+      <c r="G69">
+        <f>E69-E4</f>
+        <v>-0.11399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>0.1</v>
+      </c>
+      <c r="D70">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="E70">
+        <v>0.67</v>
+      </c>
+      <c r="F70">
+        <f>D70-D4</f>
+        <v>-1.4000000000000012E-2</v>
+      </c>
+      <c r="G70">
+        <f>E70-E4</f>
+        <v>-9.3999999999999972E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>0.3</v>
+      </c>
+      <c r="D71">
+        <v>0.876</v>
+      </c>
+      <c r="E71">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F71">
+        <f>D71-D4</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="G71">
+        <f>E71-E4</f>
+        <v>-4.8000000000000043E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+      <c r="D72">
+        <v>0.877</v>
+      </c>
+      <c r="E72">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F72">
+        <f>D72-D4</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="G72">
+        <f>E72-E4</f>
+        <v>-3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>0.7</v>
+      </c>
+      <c r="D73">
+        <v>0.877</v>
+      </c>
+      <c r="E73">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F73">
+        <f>D73-D4</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="G73">
+        <f>E73-E4</f>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D74">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E74">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F74">
+        <f>D74-D5</f>
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="G74">
+        <f>E74-E5</f>
+        <v>-2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>0.1</v>
+      </c>
+      <c r="D75">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E75">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F75">
+        <f>D75-D5</f>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="G75">
+        <f>E75-E5</f>
+        <v>-2.4000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0.3</v>
+      </c>
+      <c r="D76">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E76">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F76">
+        <f>D76-D5</f>
+        <v>-3.0999999999999917E-2</v>
+      </c>
+      <c r="G76">
+        <f>E76-E5</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="E77">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F77">
+        <f>D77-D5</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f>E77-E5</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>0.7</v>
+      </c>
+      <c r="D78">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E78">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F78">
+        <f>D78-D5</f>
+        <v>-1.2999999999999901E-2</v>
+      </c>
+      <c r="G78">
+        <f>E78-E5</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C68">
+      <c r="C79" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D79">
+        <v>0.749</v>
+      </c>
+      <c r="E79">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F79">
+        <f>D79-D6</f>
+        <v>-0.11399999999999999</v>
+      </c>
+      <c r="G79">
+        <f>E79-E6</f>
+        <v>-1.5000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>0.1</v>
+      </c>
+      <c r="D80">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="E80">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F80">
+        <f>D80-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f>E80-E6</f>
+        <v>-6.0999999999999943E-2</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>0.3</v>
+      </c>
+      <c r="D81">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="E81">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F81">
+        <f>D81-D6</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G81">
+        <f>E81-E6</f>
+        <v>-1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>0.86</v>
+      </c>
+      <c r="E82">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="F82">
+        <f>D82-D6</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="G82">
+        <f>E82-E6</f>
+        <v>-1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
         <v>0.7</v>
       </c>
-      <c r="D68">
+      <c r="D83">
         <v>0.86299999999999999</v>
       </c>
-      <c r="E68">
+      <c r="E83">
         <v>0.97</v>
       </c>
-      <c r="F68">
-        <f>D68-D6</f>
+      <c r="F83">
+        <f>D83-D6</f>
         <v>0</v>
       </c>
-      <c r="G68">
-        <f>E68-E6</f>
+      <c r="G83">
+        <f>E83-E6</f>
         <v>-4.0000000000000036E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F7:F68">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="F7:F83">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -4352,8 +4718,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G68">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G7:G83">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -4384,7 +4750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
@@ -4392,79 +4758,79 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>-9.4000000000000083E-2</v>
+      </c>
+      <c r="C4">
+        <v>-2.4000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>-9.4000000000000083E-2</v>
+      </c>
+      <c r="C5">
+        <v>-2.4000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
+        <v>-4.3000000000000038E-2</v>
+      </c>
+      <c r="C6">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>-3.1000000000000028E-2</v>
+      </c>
+      <c r="C7">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>-1.3000000000000012E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="B9">
         <v>-9.4000000000000083E-2</v>
       </c>
-      <c r="C4" s="9">
-        <v>-2.4000000000000021E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="B5" s="9">
-        <v>-9.4000000000000083E-2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>-2.4000000000000021E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="B6" s="9">
-        <v>-4.3000000000000038E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-3.1000000000000028E-2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-1.3000000000000012E-2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-9.4000000000000083E-2</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>-2.4000000000000021E-2</v>
       </c>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebeha\Documents\GitHub\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342359E6-BC7F-4C82-991D-FF1C7A0303F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396D4C51-644A-46A5-B3C7-2D8E9BC4BF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{04596899-77FC-477F-AC55-14687390969B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="22">
   <si>
     <t>Event Log</t>
   </si>
@@ -104,14 +104,14 @@
     <t>bpic2017</t>
   </si>
   <si>
-    <t>no improvement of leakage anymore</t>
+    <t>bpic2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,25 +133,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -176,10 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1522,7 +1507,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Eva Beha" refreshedDate="45491.162929629631" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="67" xr:uid="{24E4E8AE-7E7E-4B50-B269-006BF7690D3F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G83" sheet="Results"/>
+    <worksheetSource ref="A1:G84" sheet="Results"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Sampling technique" numFmtId="0">
@@ -2610,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F45B77-02EF-4A30-9C0D-EEC76D2162F2}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="72" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2623,10 +2608,9 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2649,7 +2633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2672,7 +2656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2695,7 +2679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2718,7 +2702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2741,7 +2725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2764,60 +2748,57 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.05</v>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>0.03</v>
       </c>
       <c r="D7">
-        <v>0.85199999999999998</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="E7">
-        <v>0.66200000000000003</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="F7">
         <f>D7-D2</f>
-        <v>-1.0000000000000009E-3</v>
+        <v>-6.5999999999999948E-2</v>
       </c>
       <c r="G7">
         <f>E7-E2</f>
-        <v>-0.13300000000000001</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D8">
-        <v>0.80600000000000005</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="E8">
-        <v>0.65700000000000003</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="F8">
         <f>D8-D2</f>
-        <v>-4.6999999999999931E-2</v>
+        <v>-1.0000000000000009E-3</v>
       </c>
       <c r="G8">
         <f>E8-E2</f>
-        <v>-0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2825,24 +2806,24 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>0.86899999999999999</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="E9">
-        <v>0.73299999999999998</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F9">
         <f>D9-D2</f>
-        <v>1.6000000000000014E-2</v>
+        <v>-4.6999999999999931E-2</v>
       </c>
       <c r="G9">
-        <f>(E9-E2)</f>
-        <v>-6.2000000000000055E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E9-E2</f>
+        <v>-0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2850,24 +2831,24 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>0.86299999999999999</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E10">
-        <v>0.74399999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="F10">
         <f>D10-D2</f>
-        <v>1.0000000000000009E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="G10">
-        <f>E10-E2</f>
-        <v>-5.1000000000000045E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <f>(E10-E2)</f>
+        <v>-6.2000000000000055E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2875,49 +2856,49 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.86</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E11">
-        <v>0.78300000000000003</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="F11">
         <f>D11-D2</f>
-        <v>7.0000000000000062E-3</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="G11">
         <f>E11-E2</f>
-        <v>-1.2000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-5.1000000000000045E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.05</v>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.7</v>
       </c>
       <c r="D12">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="E12">
-        <v>0.70199999999999996</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="F12">
-        <f>D12-D3</f>
-        <v>-8.0999999999999961E-2</v>
+        <f>D12-D2</f>
+        <v>7.0000000000000062E-3</v>
       </c>
       <c r="G12">
-        <f>E12-E3</f>
-        <v>-0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E12-E2</f>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2925,24 +2906,24 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D13">
+        <v>0.64</v>
+      </c>
+      <c r="E13">
         <v>0.70199999999999996</v>
-      </c>
-      <c r="E13">
-        <v>0.79200000000000004</v>
       </c>
       <c r="F13">
         <f>D13-D3</f>
-        <v>-1.9000000000000017E-2</v>
+        <v>-8.0999999999999961E-2</v>
       </c>
       <c r="G13">
         <f>E13-E3</f>
-        <v>-2.8999999999999915E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2950,24 +2931,24 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
-        <v>0.72299999999999998</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="E14">
-        <v>0.78700000000000003</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="F14">
         <f>D14-D3</f>
-        <v>2.0000000000000018E-3</v>
+        <v>-1.9000000000000017E-2</v>
       </c>
       <c r="G14">
         <f>E14-E3</f>
-        <v>-3.3999999999999919E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.8999999999999915E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2975,24 +2956,24 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
-        <v>0.71899999999999997</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E15">
-        <v>0.78600000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="F15">
         <f>D15-D3</f>
-        <v>-2.0000000000000018E-3</v>
+        <v>2.0000000000000018E-3</v>
       </c>
       <c r="G15">
         <f>E15-E3</f>
-        <v>-3.499999999999992E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-3.3999999999999919E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3000,99 +2981,99 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
-        <v>0.73299999999999998</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="E16">
-        <v>0.80300000000000005</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="F16">
         <f>D16-D3</f>
-        <v>1.2000000000000011E-2</v>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="G16">
         <f>E16-E3</f>
-        <v>-1.7999999999999905E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-3.499999999999992E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.01</v>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0.7</v>
       </c>
       <c r="D17">
-        <v>0.67800000000000005</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="E17">
-        <v>0.47799999999999998</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="F17">
-        <f>D17-D4</f>
-        <v>-0.20199999999999996</v>
+        <f>D17-D3</f>
+        <v>1.2000000000000011E-2</v>
       </c>
       <c r="G17">
-        <f>E17-E4</f>
-        <v>-0.28600000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E17-E3</f>
+        <v>-1.7999999999999905E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8">
-        <v>0.03</v>
+      <c r="C18">
+        <v>0.01</v>
       </c>
       <c r="D18">
-        <v>0.86499999999999999</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="E18">
-        <v>0.624</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="F18">
         <f>D18-D4</f>
-        <v>-1.5000000000000013E-2</v>
+        <v>-0.20199999999999996</v>
       </c>
       <c r="G18">
         <f>E18-E4</f>
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.28600000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8">
-        <v>0.05</v>
+      <c r="C19">
+        <v>0.03</v>
       </c>
       <c r="D19">
-        <v>0.86399999999999999</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="E19">
-        <v>0.55800000000000005</v>
+        <v>0.624</v>
       </c>
       <c r="F19">
         <f>D19-D4</f>
-        <v>-1.6000000000000014E-2</v>
+        <v>-1.5000000000000013E-2</v>
       </c>
       <c r="G19">
         <f>E19-E4</f>
-        <v>-0.20599999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3100,25 +3081,24 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D20">
-        <v>0.86699999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="E20">
-        <v>0.64400000000000002</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F20">
         <f>D20-D4</f>
-        <v>-1.3000000000000012E-2</v>
+        <v>-1.6000000000000014E-2</v>
       </c>
       <c r="G20">
         <f>E20-E4</f>
-        <v>-0.12</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.20599999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -3126,24 +3106,24 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D21">
-        <v>0.878</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="E21">
-        <v>0.66200000000000003</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="F21">
         <f>D21-D4</f>
-        <v>-2.0000000000000018E-3</v>
+        <v>-1.3000000000000012E-2</v>
       </c>
       <c r="G21">
         <f>E21-E4</f>
-        <v>-0.10199999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3151,24 +3131,24 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D22">
-        <v>0.879</v>
+        <v>0.878</v>
       </c>
       <c r="E22">
-        <v>0.70199999999999996</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="F22">
         <f>D22-D4</f>
-        <v>-1.0000000000000009E-3</v>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="G22">
         <f>E22-E4</f>
-        <v>-6.2000000000000055E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.10199999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3176,49 +3156,49 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D23">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="E23">
-        <v>0.73199999999999998</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="F23">
         <f>D23-D4</f>
-        <v>0</v>
+        <v>-1.0000000000000009E-3</v>
       </c>
       <c r="G23">
         <f>E23-E4</f>
-        <v>-3.2000000000000028E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-6.2000000000000055E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D24">
-        <v>0.73599999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E24">
-        <v>0.97899999999999998</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="F24">
-        <f>D24-D5</f>
-        <v>-8.0999999999999961E-2</v>
+        <f>D24-D4</f>
+        <v>0</v>
       </c>
       <c r="G24">
-        <f>E24-E5</f>
-        <v>-1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E24-E4</f>
+        <v>-3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -3226,24 +3206,24 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D25">
-        <v>0.76900000000000002</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="E25">
-        <v>0.98799999999999999</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="F25">
         <f>D25-D5</f>
-        <v>-4.7999999999999932E-2</v>
+        <v>-8.0999999999999961E-2</v>
       </c>
       <c r="G25">
         <f>E25-E5</f>
-        <v>8.0000000000000071E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -3251,99 +3231,99 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D26">
-        <v>0.79400000000000004</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="E26">
-        <v>0.98599999999999999</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="F26">
         <f>D26-D5</f>
-        <v>-2.2999999999999909E-2</v>
+        <v>-4.7999999999999932E-2</v>
       </c>
       <c r="G26">
         <f>E26-E5</f>
-        <v>6.0000000000000053E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.03</v>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0.7</v>
       </c>
       <c r="D27">
-        <v>0.77</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="E27">
-        <v>0.85799999999999998</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F27">
-        <f>D27-D6</f>
-        <v>-9.2999999999999972E-2</v>
+        <f>D27-D5</f>
+        <v>-2.2999999999999909E-2</v>
       </c>
       <c r="G27">
-        <f>E27-E6</f>
-        <v>-0.11599999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E27-E5</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="8">
-        <v>0.05</v>
+      <c r="C28">
+        <v>0.03</v>
       </c>
       <c r="D28">
-        <v>0.88200000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="E28">
-        <v>0.88400000000000001</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="F28">
         <f>D28-D6</f>
-        <v>1.9000000000000017E-2</v>
+        <v>-9.2999999999999972E-2</v>
       </c>
       <c r="G28">
         <f>E28-E6</f>
-        <v>-8.9999999999999969E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.11599999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="8">
-        <v>0.1</v>
+      <c r="C29">
+        <v>0.05</v>
       </c>
       <c r="D29">
-        <v>0.86</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="E29">
-        <v>0.92900000000000005</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="F29">
         <f>D29-D6</f>
-        <v>-3.0000000000000027E-3</v>
+        <v>1.9000000000000017E-2</v>
       </c>
       <c r="G29">
         <f>E29-E6</f>
-        <v>-4.4999999999999929E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3351,24 +3331,24 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D30">
-        <v>0.84599999999999997</v>
+        <v>0.86</v>
       </c>
       <c r="E30">
-        <v>0.95199999999999996</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="F30">
         <f>D30-D6</f>
-        <v>-1.7000000000000015E-2</v>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="G30">
         <f>E30-E6</f>
-        <v>-2.200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-4.4999999999999929E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3376,24 +3356,24 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D31">
-        <v>0.86</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="E31">
-        <v>0.95699999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="F31">
         <f>D31-D6</f>
-        <v>-3.0000000000000027E-3</v>
+        <v>-1.7000000000000015E-2</v>
       </c>
       <c r="G31">
         <f>E31-E6</f>
-        <v>-1.7000000000000015E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -3401,75 +3381,74 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D32">
-        <v>0.86799999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="E32">
-        <v>0.97</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="F32">
         <f>D32-D6</f>
-        <v>5.0000000000000044E-3</v>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="G32">
         <f>E32-E6</f>
+        <v>-1.7000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0.7</v>
+      </c>
+      <c r="D33">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.97</v>
+      </c>
+      <c r="F33">
+        <f>D33-D6</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="G33">
+        <f>E33-E6</f>
         <v>-4.0000000000000036E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="D33">
-        <v>0.751</v>
-      </c>
-      <c r="E33">
-        <v>0.6</v>
-      </c>
-      <c r="F33">
-        <f>D33-D2</f>
-        <v>-0.10199999999999998</v>
-      </c>
-      <c r="G33">
-        <f>E33-E2</f>
-        <v>-0.19500000000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D34">
-        <v>0.80600000000000005</v>
+        <v>0.751</v>
       </c>
       <c r="E34">
-        <v>0.65700000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="F34">
         <f>D34-D2</f>
-        <v>-4.6999999999999931E-2</v>
+        <v>-0.10199999999999998</v>
       </c>
       <c r="G34">
         <f>E34-E2</f>
-        <v>-0.13800000000000001</v>
-      </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.19500000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -3477,24 +3456,24 @@
         <v>18</v>
       </c>
       <c r="C35">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D35">
-        <v>0.86299999999999999</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="E35">
-        <v>0.66600000000000004</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F35">
         <f>D35-D2</f>
-        <v>1.0000000000000009E-2</v>
+        <v>-4.6999999999999931E-2</v>
       </c>
       <c r="G35">
         <f>E35-E2</f>
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -3502,24 +3481,24 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D36">
-        <v>0.871</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E36">
-        <v>0.70199999999999996</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F36">
         <f>D36-D2</f>
-        <v>1.8000000000000016E-2</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="G36">
         <f>E36-E2</f>
-        <v>-9.3000000000000083E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -3527,50 +3506,49 @@
         <v>18</v>
       </c>
       <c r="C37">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D37">
-        <v>0.872</v>
+        <v>0.871</v>
       </c>
       <c r="E37">
-        <v>0.69099999999999995</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="F37">
         <f>D37-D2</f>
-        <v>1.9000000000000017E-2</v>
+        <v>1.8000000000000016E-2</v>
       </c>
       <c r="G37">
         <f>E37-E2</f>
-        <v>-0.10400000000000009</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-9.3000000000000083E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="D38">
-        <v>0.58499999999999996</v>
+        <v>0.872</v>
       </c>
       <c r="E38">
-        <v>0.45200000000000001</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F38">
-        <f>D38-D3</f>
-        <v>-0.13600000000000001</v>
+        <f>D38-D2</f>
+        <v>1.9000000000000017E-2</v>
       </c>
       <c r="G38">
-        <f>E38-E3</f>
-        <v>-0.36899999999999994</v>
-      </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E38-E2</f>
+        <v>-0.10400000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -3578,25 +3556,24 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D39">
-        <v>0.69399999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E39">
-        <v>0.45800000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="F39">
         <f>D39-D3</f>
-        <v>-2.7000000000000024E-2</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="G39">
         <f>E39-E3</f>
-        <v>-0.36299999999999993</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.36899999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3604,24 +3581,24 @@
         <v>19</v>
       </c>
       <c r="C40">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D40">
-        <v>0.70399999999999996</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="E40">
-        <v>0.46500000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="F40">
         <f>D40-D3</f>
-        <v>-1.7000000000000015E-2</v>
+        <v>-2.7000000000000024E-2</v>
       </c>
       <c r="G40">
         <f>E40-E3</f>
-        <v>-0.35599999999999993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.36299999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3629,24 +3606,24 @@
         <v>19</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D41">
-        <v>0.71899999999999997</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E41">
-        <v>0.502</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="F41">
         <f>D41-D3</f>
-        <v>-2.0000000000000018E-3</v>
+        <v>-1.7000000000000015E-2</v>
       </c>
       <c r="G41">
         <f>E41-E3</f>
-        <v>-0.31899999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.35599999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -3654,75 +3631,74 @@
         <v>19</v>
       </c>
       <c r="C42">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D42">
-        <v>0.72699999999999998</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="E42">
-        <v>0.55900000000000005</v>
+        <v>0.502</v>
       </c>
       <c r="F42">
         <f>D42-D3</f>
-        <v>6.0000000000000053E-3</v>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="G42">
         <f>E42-E3</f>
-        <v>-0.2619999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.31899999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="8">
-        <v>0.03</v>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>0.7</v>
       </c>
       <c r="D43">
-        <v>0.74</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="E43">
-        <v>0.53600000000000003</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="F43">
-        <f>D43-D4</f>
-        <v>-0.14000000000000001</v>
+        <f>D43-D3</f>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="G43">
-        <f>E43-E4</f>
-        <v>-0.22799999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E43-E3</f>
+        <v>-0.2619999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="8">
-        <v>0.05</v>
+      <c r="C44">
+        <v>0.03</v>
       </c>
       <c r="D44">
-        <v>0.83299999999999996</v>
+        <v>0.74</v>
       </c>
       <c r="E44">
-        <v>0.54200000000000004</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="F44">
         <f>D44-D4</f>
-        <v>-4.7000000000000042E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G44">
         <f>E44-E4</f>
-        <v>-0.22199999999999998</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.22799999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3730,25 +3706,24 @@
         <v>20</v>
       </c>
       <c r="C45">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D45">
-        <v>0.84699999999999998</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="E45">
-        <v>0.58499999999999996</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="F45">
         <f>D45-D4</f>
-        <v>-3.3000000000000029E-2</v>
+        <v>-4.7000000000000042E-2</v>
       </c>
       <c r="G45">
         <f>E45-E4</f>
-        <v>-0.17900000000000005</v>
-      </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.22199999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -3756,24 +3731,24 @@
         <v>20</v>
       </c>
       <c r="C46">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D46">
-        <v>0.872</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="E46">
-        <v>0.63300000000000001</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="F46">
         <f>D46-D4</f>
-        <v>-8.0000000000000071E-3</v>
+        <v>-3.3000000000000029E-2</v>
       </c>
       <c r="G46">
         <f>E46-E4</f>
-        <v>-0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.17900000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -3781,24 +3756,24 @@
         <v>20</v>
       </c>
       <c r="C47">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D47">
-        <v>0.86499999999999999</v>
+        <v>0.872</v>
       </c>
       <c r="E47">
-        <v>0.64700000000000002</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F47">
         <f>D47-D4</f>
-        <v>-1.5000000000000013E-2</v>
+        <v>-8.0000000000000071E-3</v>
       </c>
       <c r="G47">
         <f>E47-E4</f>
-        <v>-0.11699999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -3806,49 +3781,49 @@
         <v>20</v>
       </c>
       <c r="C48">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D48">
-        <v>0.872</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="E48">
-        <v>0.65100000000000002</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="F48">
         <f>D48-D4</f>
-        <v>-8.0000000000000071E-3</v>
+        <v>-1.5000000000000013E-2</v>
       </c>
       <c r="G48">
         <f>E48-E4</f>
-        <v>-0.11299999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.11699999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C49">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D49">
-        <v>0.40699999999999997</v>
+        <v>0.872</v>
       </c>
       <c r="E49">
-        <v>0.74099999999999999</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="F49">
-        <f>D49-D5</f>
-        <v>-0.41</v>
+        <f>D49-D4</f>
+        <v>-8.0000000000000071E-3</v>
       </c>
       <c r="G49">
-        <f>E49-E5</f>
-        <v>-0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E49-E4</f>
+        <v>-0.11299999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -3856,24 +3831,24 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D50">
-        <v>0.41699999999999998</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="E50">
-        <v>0.68</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="F50">
         <f>D50-D5</f>
-        <v>-0.39999999999999997</v>
+        <v>-0.41</v>
       </c>
       <c r="G50">
         <f>E50-E5</f>
-        <v>-0.29999999999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -3881,51 +3856,49 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D51">
-        <v>0.372</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E51">
-        <v>0.71299999999999997</v>
+        <v>0.68</v>
       </c>
       <c r="F51">
         <f>D51-D5</f>
-        <v>-0.44499999999999995</v>
+        <v>-0.39999999999999997</v>
       </c>
       <c r="G51">
         <f>E51-E5</f>
-        <v>-0.26700000000000002</v>
-      </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.29999999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D52">
-        <v>0.30499999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="E52">
-        <v>0.45400000000000001</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F52">
-        <f>D52-D6</f>
-        <v>-0.55800000000000005</v>
+        <f>D52-D5</f>
+        <v>-0.44499999999999995</v>
       </c>
       <c r="G52">
-        <f>E52-E6</f>
-        <v>-0.52</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E52-E5</f>
+        <v>-0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -3933,25 +3906,24 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D53">
-        <v>0.78200000000000003</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="E53">
-        <v>0.69599999999999995</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="F53">
         <f>D53-D6</f>
-        <v>-8.0999999999999961E-2</v>
+        <v>-0.55800000000000005</v>
       </c>
       <c r="G53">
         <f>E53-E6</f>
-        <v>-0.27800000000000002</v>
-      </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -3959,24 +3931,24 @@
         <v>4</v>
       </c>
       <c r="C54">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D54">
-        <v>0.79500000000000004</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="E54">
-        <v>0.72199999999999998</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="F54">
         <f>D54-D6</f>
-        <v>-6.7999999999999949E-2</v>
+        <v>-8.0999999999999961E-2</v>
       </c>
       <c r="G54">
         <f>E54-E6</f>
-        <v>-0.252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -3984,75 +3956,74 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D55">
-        <v>0.82099999999999995</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="E55">
-        <v>0.75900000000000001</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="F55">
         <f>D55-D6</f>
-        <v>-4.2000000000000037E-2</v>
+        <v>-6.7999999999999949E-2</v>
       </c>
       <c r="G55">
         <f>E55-E6</f>
+        <v>-0.252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>0.7</v>
+      </c>
+      <c r="D56">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E56">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="F56">
+        <f>D56-D6</f>
+        <v>-4.2000000000000037E-2</v>
+      </c>
+      <c r="G56">
+        <f>E56-E6</f>
         <v>-0.21499999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="D56">
-        <v>0.77</v>
-      </c>
-      <c r="E56">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="F56">
-        <f>D56-D2</f>
-        <v>-8.2999999999999963E-2</v>
-      </c>
-      <c r="G56">
-        <f>E56-E2</f>
-        <v>-0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
       <c r="C57">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D57">
-        <v>0.82899999999999996</v>
+        <v>0.77</v>
       </c>
       <c r="E57">
-        <v>0.70099999999999996</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="F57">
         <f>D57-D2</f>
-        <v>-2.4000000000000021E-2</v>
+        <v>-8.2999999999999963E-2</v>
       </c>
       <c r="G57">
         <f>E57-E2</f>
-        <v>-9.4000000000000083E-2</v>
-      </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -4060,24 +4031,24 @@
         <v>18</v>
       </c>
       <c r="C58">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D58">
-        <v>0.85099999999999998</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E58">
-        <v>0.752</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="F58">
         <f>D58-D2</f>
-        <v>-2.0000000000000018E-3</v>
+        <v>-2.4000000000000021E-2</v>
       </c>
       <c r="G58">
         <f>E58-E2</f>
-        <v>-4.3000000000000038E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-9.4000000000000083E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -4085,13 +4056,13 @@
         <v>18</v>
       </c>
       <c r="C59">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D59">
         <v>0.85099999999999998</v>
       </c>
       <c r="E59">
-        <v>0.76400000000000001</v>
+        <v>0.752</v>
       </c>
       <c r="F59">
         <f>D59-D2</f>
@@ -4099,85 +4070,85 @@
       </c>
       <c r="G59">
         <f>E59-E2</f>
-        <v>-3.1000000000000028E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-4.3000000000000038E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="8">
-        <v>0.7</v>
+      <c r="C60">
+        <v>0.5</v>
       </c>
       <c r="D60">
-        <v>0.85499999999999998</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="E60">
-        <v>0.78200000000000003</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="F60">
         <f>D60-D2</f>
-        <v>2.0000000000000018E-3</v>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="G60">
         <f>E60-E2</f>
-        <v>-1.3000000000000012E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-3.1000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0.03</v>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>0.7</v>
       </c>
       <c r="D61">
-        <v>0.63200000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="E61">
-        <v>0.76100000000000001</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="F61">
-        <f>D61-D3</f>
-        <v>-8.8999999999999968E-2</v>
+        <f>D61-D2</f>
+        <v>2.0000000000000018E-3</v>
       </c>
       <c r="G61">
-        <f>E61-E3</f>
-        <v>-5.9999999999999942E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E61-E2</f>
+        <v>-1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="8">
-        <v>0.05</v>
+      <c r="C62">
+        <v>0.03</v>
       </c>
       <c r="D62">
-        <v>0.65600000000000003</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="E62">
-        <v>0.70599999999999996</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="F62">
         <f>D62-D3</f>
-        <v>-6.4999999999999947E-2</v>
+        <v>-8.8999999999999968E-2</v>
       </c>
       <c r="G62">
         <f>E62-E3</f>
-        <v>-0.11499999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-5.9999999999999942E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -4185,24 +4156,24 @@
         <v>19</v>
       </c>
       <c r="C63">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D63">
-        <v>0.68200000000000005</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E63">
-        <v>0.74399999999999999</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="F63">
         <f>D63-D3</f>
-        <v>-3.8999999999999924E-2</v>
+        <v>-6.4999999999999947E-2</v>
       </c>
       <c r="G63">
         <f>E63-E3</f>
-        <v>-7.6999999999999957E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.11499999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -4210,24 +4181,24 @@
         <v>19</v>
       </c>
       <c r="C64">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D64">
-        <v>0.71799999999999997</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="E64">
-        <v>0.80300000000000005</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="F64">
         <f>D64-D3</f>
-        <v>-3.0000000000000027E-3</v>
+        <v>-3.8999999999999924E-2</v>
       </c>
       <c r="G64">
         <f>E64-E3</f>
-        <v>-1.7999999999999905E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-7.6999999999999957E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -4235,24 +4206,24 @@
         <v>19</v>
       </c>
       <c r="C65">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D65">
-        <v>0.72699999999999998</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="E65">
-        <v>0.80500000000000005</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="F65">
         <f>D65-D3</f>
-        <v>6.0000000000000053E-3</v>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="G65">
         <f>E65-E3</f>
-        <v>-1.5999999999999903E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-1.7999999999999905E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -4260,49 +4231,49 @@
         <v>19</v>
       </c>
       <c r="C66">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D66">
-        <v>0.72399999999999998</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="E66">
-        <v>0.83099999999999996</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="F66">
         <f>D66-D3</f>
-        <v>3.0000000000000027E-3</v>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="G66">
         <f>E66-E3</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-1.5999999999999903E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
       <c r="D67">
-        <v>0.60099999999999998</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="E67">
-        <v>0.50900000000000001</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="F67">
-        <f>D67-D4</f>
-        <v>-0.27900000000000003</v>
+        <f>D67-D3</f>
+        <v>3.0000000000000027E-3</v>
       </c>
       <c r="G67">
-        <f>E67-E4</f>
-        <v>-0.255</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E67-E3</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -4310,25 +4281,24 @@
         <v>20</v>
       </c>
       <c r="C68">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D68">
-        <v>0.84699999999999998</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="E68">
-        <v>0.64700000000000002</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="F68">
         <f>D68-D4</f>
-        <v>-3.3000000000000029E-2</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="G68">
         <f>E68-E4</f>
-        <v>-0.11699999999999999</v>
-      </c>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -4336,24 +4306,24 @@
         <v>20</v>
       </c>
       <c r="C69">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D69">
-        <v>0.86899999999999999</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="E69">
-        <v>0.65</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="F69">
         <f>D69-D4</f>
-        <v>-1.100000000000001E-2</v>
+        <v>-3.3000000000000029E-2</v>
       </c>
       <c r="G69">
         <f>E69-E4</f>
-        <v>-0.11399999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.11699999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -4361,24 +4331,24 @@
         <v>20</v>
       </c>
       <c r="C70">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D70">
-        <v>0.86599999999999999</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E70">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="F70">
         <f>D70-D4</f>
-        <v>-1.4000000000000012E-2</v>
+        <v>-1.100000000000001E-2</v>
       </c>
       <c r="G70">
         <f>E70-E4</f>
-        <v>-9.3999999999999972E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.11399999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -4386,24 +4356,24 @@
         <v>20</v>
       </c>
       <c r="C71">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D71">
-        <v>0.876</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="E71">
-        <v>0.71599999999999997</v>
+        <v>0.67</v>
       </c>
       <c r="F71">
         <f>D71-D4</f>
-        <v>-4.0000000000000036E-3</v>
+        <v>-1.4000000000000012E-2</v>
       </c>
       <c r="G71">
         <f>E71-E4</f>
-        <v>-4.8000000000000043E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-9.3999999999999972E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -4411,24 +4381,24 @@
         <v>20</v>
       </c>
       <c r="C72">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D72">
-        <v>0.877</v>
+        <v>0.876</v>
       </c>
       <c r="E72">
-        <v>0.72799999999999998</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="F72">
         <f>D72-D4</f>
-        <v>-3.0000000000000027E-3</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="G72">
         <f>E72-E4</f>
-        <v>-3.6000000000000032E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-4.8000000000000043E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -4436,13 +4406,13 @@
         <v>20</v>
       </c>
       <c r="C73">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D73">
         <v>0.877</v>
       </c>
       <c r="E73">
-        <v>0.75800000000000001</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="F73">
         <f>D73-D4</f>
@@ -4450,35 +4420,35 @@
       </c>
       <c r="G73">
         <f>E73-E4</f>
-        <v>-6.0000000000000053E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="8">
-        <v>0.05</v>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>0.7</v>
       </c>
       <c r="D74">
-        <v>0.57599999999999996</v>
+        <v>0.877</v>
       </c>
       <c r="E74">
-        <v>0.95499999999999996</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="F74">
-        <f>D74-D5</f>
-        <v>-0.24099999999999999</v>
+        <f>D74-D4</f>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="G74">
-        <f>E74-E5</f>
-        <v>-2.5000000000000022E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E74-E4</f>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -4486,24 +4456,24 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D75">
-        <v>0.79700000000000004</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E75">
-        <v>0.95599999999999996</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="F75">
         <f>D75-D5</f>
-        <v>-1.9999999999999907E-2</v>
+        <v>-0.24099999999999999</v>
       </c>
       <c r="G75">
         <f>E75-E5</f>
-        <v>-2.4000000000000021E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -4511,24 +4481,24 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D76">
-        <v>0.78600000000000003</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="E76">
-        <v>0.98599999999999999</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="F76">
         <f>D76-D5</f>
-        <v>-3.0999999999999917E-2</v>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="G76">
         <f>E76-E5</f>
-        <v>6.0000000000000053E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.4000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -4536,24 +4506,24 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D77">
-        <v>0.81699999999999995</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="E77">
-        <v>0.98699999999999999</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F77">
         <f>D77-D5</f>
-        <v>0</v>
+        <v>-3.0999999999999917E-2</v>
       </c>
       <c r="G77">
         <f>E77-E5</f>
-        <v>7.0000000000000062E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -4561,49 +4531,49 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D78">
-        <v>0.80400000000000005</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="E78">
-        <v>0.98299999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="F78">
         <f>D78-D5</f>
-        <v>-1.2999999999999901E-2</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <f>E78-E5</f>
-        <v>3.0000000000000027E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="8">
-        <v>0.05</v>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>0.7</v>
       </c>
       <c r="D79">
-        <v>0.749</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E79">
-        <v>0.95899999999999996</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="F79">
-        <f>D79-D6</f>
-        <v>-0.11399999999999999</v>
+        <f>D79-D5</f>
+        <v>-1.2999999999999901E-2</v>
       </c>
       <c r="G79">
-        <f>E79-E6</f>
-        <v>-1.5000000000000013E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <f>E79-E5</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -4611,23 +4581,22 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D80">
-        <v>0.86299999999999999</v>
+        <v>0.749</v>
       </c>
       <c r="E80">
-        <v>0.91300000000000003</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="F80">
         <f>D80-D6</f>
-        <v>0</v>
+        <v>-0.11399999999999999</v>
       </c>
       <c r="G80">
         <f>E80-E6</f>
-        <v>-6.0999999999999943E-2</v>
-      </c>
-      <c r="H80" s="6"/>
+        <v>-1.5000000000000013E-2</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -4637,21 +4606,21 @@
         <v>4</v>
       </c>
       <c r="C81">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D81">
-        <v>0.86499999999999999</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="E81">
-        <v>0.96299999999999997</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="F81">
         <f>D81-D6</f>
-        <v>2.0000000000000018E-3</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <f>E81-E6</f>
-        <v>-1.100000000000001E-2</v>
+        <v>-6.0999999999999943E-2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4662,21 +4631,21 @@
         <v>4</v>
       </c>
       <c r="C82">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D82">
-        <v>0.86</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="E82">
-        <v>0.95599999999999996</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="F82">
         <f>D82-D6</f>
-        <v>-3.0000000000000027E-3</v>
+        <v>2.0000000000000018E-3</v>
       </c>
       <c r="G82">
         <f>E82-E6</f>
-        <v>-1.8000000000000016E-2</v>
+        <v>-1.100000000000001E-2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4687,26 +4656,51 @@
         <v>4</v>
       </c>
       <c r="C83">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D83">
-        <v>0.86299999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="E83">
-        <v>0.97</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="F83">
         <f>D83-D6</f>
-        <v>0</v>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="G83">
         <f>E83-E6</f>
+        <v>-1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0.7</v>
+      </c>
+      <c r="D84">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="E84">
+        <v>0.97</v>
+      </c>
+      <c r="F84">
+        <f>D84-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f>E84-E6</f>
         <v>-4.0000000000000036E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F7:F83">
+  <conditionalFormatting sqref="F7:F84">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4718,7 +4712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G83">
+  <conditionalFormatting sqref="G7:G84">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4731,6 +4725,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
